--- a/Status Standaardenregister.xlsx
+++ b/Status Standaardenregister.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleydtk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleydtk\Documents\GitHub\Datastandaarden-Register-OSLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,19 +167,19 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -195,13 +195,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:F25" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:F25" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="C4:F25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Categorie" dataDxfId="2"/>
-    <tableColumn id="2" name="Standaard" dataDxfId="0"/>
+    <tableColumn id="1" name="Categorie" dataDxfId="3"/>
+    <tableColumn id="2" name="Standaard" dataDxfId="2"/>
     <tableColumn id="3" name="Html" dataDxfId="1"/>
-    <tableColumn id="4" name="Documenten" dataDxfId="4"/>
+    <tableColumn id="4" name="Documenten" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,7 +491,7 @@
   <dimension ref="C3:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Status Standaardenregister.xlsx
+++ b/Status Standaardenregister.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Standaard</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Html</t>
   </si>
   <si>
-    <t>Documenten</t>
-  </si>
-  <si>
     <t>Erkende Standaard</t>
   </si>
   <si>
@@ -112,16 +109,62 @@
   </si>
   <si>
     <t>Vocabularium Transactie</t>
+  </si>
+  <si>
+    <t>Datastandaarden Register</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Review intro needed 
+Quid links to Standards</t>
+  </si>
+  <si>
+    <t>Links TBD</t>
+  </si>
+  <si>
+    <t>OSLO Datastandaardenregister webpage</t>
+  </si>
+  <si>
+    <t>Only drafts?</t>
+  </si>
+  <si>
+    <t>Available documentation</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Webcast 4/5
+Thematische WG</t>
+  </si>
+  <si>
+    <t>Specs?</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/2/folders/0B5lYzh34rTaucXo3Slc1alV4eWc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,10 +187,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,11 +205,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -195,13 +258,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:F25" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="C4:F25"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Categorie" dataDxfId="3"/>
-    <tableColumn id="2" name="Standaard" dataDxfId="2"/>
-    <tableColumn id="3" name="Html" dataDxfId="1"/>
-    <tableColumn id="4" name="Documenten" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F26" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A4:F26"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Categorie" dataDxfId="5"/>
+    <tableColumn id="2" name="Standaard" dataDxfId="4"/>
+    <tableColumn id="3" name="Html" dataDxfId="3"/>
+    <tableColumn id="4" name="Content" dataDxfId="2"/>
+    <tableColumn id="6" name="Available documentation" dataDxfId="1"/>
+    <tableColumn id="5" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,260 +553,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F25"/>
+  <dimension ref="A3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -750,7 +900,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C53</xm:sqref>
+          <xm:sqref>A6:A54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -770,17 +920,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Status Standaardenregister.xlsx
+++ b/Status Standaardenregister.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>Standaard</t>
   </si>
@@ -147,6 +147,19 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/u/2/folders/0B5lYzh34rTaucXo3Slc1alV4eWc</t>
+  </si>
+  <si>
+    <t>OSLO Generieke API Standaard - Werkgroepsessie 1 - PPT
+OSLO Hypermedia Standaard - Publieke Werkgroepsessie - DOC
+Werkgroep Charter - OSLO Generic Hypermedia Standard - DOC
+Verslag Interne Werkgroep - Generieke APIs - DOC</t>
+  </si>
+  <si>
+    <t>Webcast - PPT
+Wergroep Charter - DOC</t>
+  </si>
+  <si>
+    <t>= slimme subsidies??</t>
   </si>
 </sst>
 </file>
@@ -191,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +228,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,7 +572,7 @@
   <dimension ref="A3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -564,7 +580,8 @@
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="42.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="5" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="57.25" customWidth="1"/>
     <col min="6" max="6" width="27.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -677,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>17</v>
@@ -711,7 +728,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -720,7 +737,9 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -744,12 +763,14 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,7 +779,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
@@ -785,9 +808,15 @@
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -823,9 +852,11 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,7 +865,9 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">

--- a/Status Standaardenregister.xlsx
+++ b/Status Standaardenregister.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Standaard</t>
   </si>
@@ -141,9 +141,6 @@
   <si>
     <t>Webcast 4/5
 Thematische WG</t>
-  </si>
-  <si>
-    <t>Specs?</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/u/2/folders/0B5lYzh34rTaucXo3Slc1alV4eWc</t>
@@ -160,6 +157,34 @@
   </si>
   <si>
     <t>= slimme subsidies??</t>
+  </si>
+  <si>
+    <t>Annvullende documentatie, verslagen en werkgroepvergaderingen, presentatie en ander materiaal still needed.
+- Functioneel toepassingsgebied
+-organisatorisch werkingsgebied
+- datum aanmelding
+- Erkenning werkgroep
+Erkenning stuurorgaan</t>
+  </si>
+  <si>
+    <t>+ link naar data.vlaanderen to do</t>
+  </si>
+  <si>
+    <t>ontbrekende link conformiteit 404</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>- Functioneel toepassingsgebied
+-organisatorisch werkingsgebied
+- datum aanmelding
+- Erkenning werkgroep
+                                                                                                                                                                                                                                                                Erkenning stuurorgaan</t>
+  </si>
+  <si>
+    <t>Aanvullende documentatie
++ functionaeel otepassingsgebied, organisatorisch werkingsgebied etc…</t>
   </si>
 </sst>
 </file>
@@ -204,13 +229,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,7 +260,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -274,15 +299,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F26" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A4:F26"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Categorie" dataDxfId="5"/>
-    <tableColumn id="2" name="Standaard" dataDxfId="4"/>
-    <tableColumn id="3" name="Html" dataDxfId="3"/>
-    <tableColumn id="4" name="Content" dataDxfId="2"/>
-    <tableColumn id="6" name="Available documentation" dataDxfId="1"/>
-    <tableColumn id="5" name="Comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G23" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G23"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Categorie" dataDxfId="6"/>
+    <tableColumn id="2" name="Standaard" dataDxfId="5"/>
+    <tableColumn id="3" name="Html" dataDxfId="4"/>
+    <tableColumn id="4" name="Content" dataDxfId="3"/>
+    <tableColumn id="6" name="Available documentation" dataDxfId="2"/>
+    <tableColumn id="5" name="Comments" dataDxfId="1"/>
+    <tableColumn id="7" name="Extra" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,10 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F26"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,345 +609,378 @@
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="57.25" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -933,7 +993,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A6:A54</xm:sqref>
+          <xm:sqref>A3:A51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Status Standaardenregister.xlsx
+++ b/Status Standaardenregister.xlsx
@@ -130,9 +130,6 @@
     <t>OSLO Datastandaardenregister webpage</t>
   </si>
   <si>
-    <t>Only drafts?</t>
-  </si>
-  <si>
     <t>Available documentation</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   <si>
     <t>Webcast 4/5
 Thematische WG</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/u/2/folders/0B5lYzh34rTaucXo3Slc1alV4eWc</t>
   </si>
   <si>
     <t>OSLO Generieke API Standaard - Werkgroepsessie 1 - PPT
@@ -176,33 +170,29 @@
     <t>Extra</t>
   </si>
   <si>
-    <t>- Functioneel toepassingsgebied
--organisatorisch werkingsgebied
-- datum aanmelding
-- Erkenning werkgroep
-                                                                                                                                                                                                                                                                Erkenning stuurorgaan</t>
-  </si>
-  <si>
     <t>Aanvullende documentatie
 + functionaeel otepassingsgebied, organisatorisch werkingsgebied etc…</t>
+  </si>
+  <si>
+    <t>Only drafts?
+Detailinformatie</t>
+  </si>
+  <si>
+    <t>Thematische werkgroep 3 ontbreekt
+Detailinformatie</t>
+  </si>
+  <si>
+    <t>Detailinformatie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,11 +215,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,15 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -598,8 +583,8 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,13 +612,13 @@
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -650,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -668,7 +653,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -683,10 +668,10 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -700,10 +685,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -716,8 +701,8 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="8" t="s">
-        <v>43</v>
+      <c r="F6" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -737,8 +722,8 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>43</v>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -752,10 +737,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -782,10 +767,10 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -812,10 +797,10 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -829,10 +814,10 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -906,8 +891,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="8" t="s">
-        <v>41</v>
+      <c r="F18" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -921,7 +906,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -979,12 +964,9 @@
       <c r="G23" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/Status Standaardenregister.xlsx
+++ b/Status Standaardenregister.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Standaard</t>
   </si>
@@ -583,8 +583,8 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,7 +831,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -865,7 +867,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -878,7 +882,9 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">

--- a/Status Standaardenregister.xlsx
+++ b/Status Standaardenregister.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Standaard</t>
   </si>
@@ -183,6 +183,13 @@
   </si>
   <si>
     <t>Detailinformatie</t>
+  </si>
+  <si>
+    <t>Vocabularium Besluiten Mobiliteit</t>
+  </si>
+  <si>
+    <t>Geen pagina aanwezig op data.vlaanderen.be
+Geen verslagen of presentaties op Gdrive</t>
   </si>
 </sst>
 </file>
@@ -284,8 +291,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G23" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G24" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G24"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Categorie" dataDxfId="6"/>
     <tableColumn id="2" name="Standaard" dataDxfId="5"/>
@@ -580,21 +587,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="57.25" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="34.375" customWidth="1"/>
+    <col min="6" max="6" width="78.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,7 +649,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -657,7 +664,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,7 +681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -691,7 +698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -706,7 +713,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,7 +734,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,7 +764,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -917,17 +924,19 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -935,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -948,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -961,13 +970,26 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -976,12 +998,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A51</xm:sqref>
+          <xm:sqref>A3:A52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
